--- a/backend/uploaded_files/3ea2faab-edc6-4bf1-9512-7b8fb64fb90c_Drivers List.xlsx
+++ b/backend/uploaded_files/3ea2faab-edc6-4bf1-9512-7b8fb64fb90c_Drivers List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -20,104 +20,92 @@
     <t>Driver Name List (A to Z)</t>
   </si>
   <si>
-    <t>Abdul Neyeem</t>
+    <t>Abdul Nayeem - 28</t>
   </si>
   <si>
-    <t>Alexander A</t>
+    <t>Alexander A - 8</t>
   </si>
   <si>
-    <t>Anandhi</t>
+    <t>Anandhi - No ID</t>
   </si>
   <si>
-    <t>Bavanai</t>
+    <t>Bavani - 24</t>
   </si>
   <si>
-    <t>Godwin s</t>
+    <t>Godwin S - No ID</t>
   </si>
   <si>
-    <t>Ilavarasi</t>
+    <t>Ilavarasi - No ID</t>
   </si>
   <si>
-    <t>K Mala</t>
+    <t>Kalaiyarasi - No ID</t>
   </si>
   <si>
-    <t>Kalaiyarasi</t>
+    <t>Loganayaki - 14</t>
   </si>
   <si>
-    <t>Loganayaki</t>
+    <t>Mala K - 9</t>
   </si>
   <si>
-    <t>Muthulakshmi</t>
+    <t>Muthulakshmi - 7</t>
   </si>
   <si>
-    <t>Nagalakshmi</t>
+    <t>Nagalakshmi S - 20</t>
   </si>
   <si>
-    <t>Prasanth</t>
+    <t>Nirmala S S - 10</t>
   </si>
   <si>
-    <t>Pratap Kumar</t>
+    <t>Prasanth - 36</t>
   </si>
   <si>
-    <t>Rajammal</t>
+    <t>Pratap Kumar - No ID</t>
   </si>
   <si>
-    <t>S S Nirmala</t>
+    <t>Rajammal - 12</t>
   </si>
   <si>
-    <t>S Veeramal</t>
+    <t>Salma - No ID</t>
   </si>
   <si>
-    <t>Salma</t>
+    <t>Saravanan - 5</t>
   </si>
   <si>
-    <t>Saravanan</t>
+    <t>Senguttavan - 15</t>
   </si>
   <si>
-    <t>Senguttavan</t>
+    <t>Shabana - 3</t>
   </si>
   <si>
-    <t>Shabana</t>
+    <t>Usna Begum - No ID</t>
   </si>
   <si>
-    <t>Usna Begum</t>
+    <t>Vanaja - No ID</t>
   </si>
   <si>
-    <t>Vanaja</t>
+    <t>Veerammal S - 18</t>
   </si>
   <si>
-    <t>Vinoth S</t>
+    <t>Vinoth S - 16</t>
   </si>
   <si>
-    <t>Abdul Nayeem</t>
+    <t>Hariharan - 25</t>
   </si>
   <si>
-    <t>Hariharan</t>
+    <t>Naresh Kumar - 20</t>
   </si>
   <si>
-    <t>Naresh Kumar</t>
+    <t>Pragadesh - 10</t>
   </si>
   <si>
-    <t>Nirmala</t>
-  </si>
-  <si>
-    <t>Pragadesh</t>
-  </si>
-  <si>
-    <t>Renuka</t>
-  </si>
-  <si>
-    <t>Sengyttavan</t>
-  </si>
-  <si>
-    <t>Vinoth</t>
+    <t>Renuka - 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -135,6 +123,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,9 +142,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
@@ -160,10 +164,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -389,7 +389,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.5"/>
     <col customWidth="1" min="2" max="2" width="25.0"/>
-    <col customWidth="1" min="3" max="24" width="7.63"/>
+    <col customWidth="1" min="3" max="22" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,7 +460,7 @@
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -548,7 +548,7 @@
       <c r="A20" s="3">
         <v>19.0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3536,10 +3536,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3547,15 +3547,15 @@
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3563,23 +3563,23 @@
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       <c r="A8" s="3">
         <v>7.0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3603,63 +3603,63 @@
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <v>12.0</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3667,16 +3667,16 @@
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">

--- a/backend/uploaded_files/3ea2faab-edc6-4bf1-9512-7b8fb64fb90c_Drivers List.xlsx
+++ b/backend/uploaded_files/3ea2faab-edc6-4bf1-9512-7b8fb64fb90c_Drivers List.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hybrid Arks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84531917-5C4F-46A6-A226-FDF352878018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D05FB4-A92F-4F5A-AC32-85BBDB36D1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="3288" windowWidth="14496" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2025" sheetId="1" r:id="rId1"/>
     <sheet name="Oct 2025" sheetId="2" r:id="rId2"/>
+    <sheet name="Nov 2025" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -108,6 +122,141 @@
   </si>
   <si>
     <t>Naresh - 20</t>
+  </si>
+  <si>
+    <t>harish-46</t>
+  </si>
+  <si>
+    <t>Dhatchayani A-45</t>
+  </si>
+  <si>
+    <t>Sanmugam R-44</t>
+  </si>
+  <si>
+    <t>Jayaraj K-43</t>
+  </si>
+  <si>
+    <t>Rajkumar P-42</t>
+  </si>
+  <si>
+    <t>Sudhakar G-41</t>
+  </si>
+  <si>
+    <t>Ashik-40</t>
+  </si>
+  <si>
+    <t>saravanan-39</t>
+  </si>
+  <si>
+    <t>John-38</t>
+  </si>
+  <si>
+    <t>Prasanth-37</t>
+  </si>
+  <si>
+    <t>Elumalai P-36</t>
+  </si>
+  <si>
+    <t>Charles-35</t>
+  </si>
+  <si>
+    <t>testing-34</t>
+  </si>
+  <si>
+    <t>Ravindaran Emp Test-33</t>
+  </si>
+  <si>
+    <t>William Raj -32</t>
+  </si>
+  <si>
+    <t>Mohammad Riyaz-31</t>
+  </si>
+  <si>
+    <t>Renuka2-30</t>
+  </si>
+  <si>
+    <t>Renuka-29</t>
+  </si>
+  <si>
+    <t>Abdul Nayeem-28</t>
+  </si>
+  <si>
+    <t>Sabarish-27</t>
+  </si>
+  <si>
+    <t>Kumaresan-26</t>
+  </si>
+  <si>
+    <t>Hari Hara Sudhan-25</t>
+  </si>
+  <si>
+    <t>Bavani-24</t>
+  </si>
+  <si>
+    <t>Bhavani-23</t>
+  </si>
+  <si>
+    <t>Nareshkumar-22</t>
+  </si>
+  <si>
+    <t>Pragadesh-21</t>
+  </si>
+  <si>
+    <t>Nagalakshmi S-20</t>
+  </si>
+  <si>
+    <t>Nagalakshmi-19</t>
+  </si>
+  <si>
+    <t>Veerammal-18</t>
+  </si>
+  <si>
+    <t>Naresh-17</t>
+  </si>
+  <si>
+    <t>Vinoth S-16</t>
+  </si>
+  <si>
+    <t>Senguttuvan-15</t>
+  </si>
+  <si>
+    <t>Loganayaki-14</t>
+  </si>
+  <si>
+    <t>Ram-13</t>
+  </si>
+  <si>
+    <t>Rajammal-12</t>
+  </si>
+  <si>
+    <t>hari-11</t>
+  </si>
+  <si>
+    <t>Nirmala-10</t>
+  </si>
+  <si>
+    <t>K Mala-9</t>
+  </si>
+  <si>
+    <t>Alexander A-8</t>
+  </si>
+  <si>
+    <t>Muthulakshmi-7</t>
+  </si>
+  <si>
+    <t>Ramakanth-6</t>
+  </si>
+  <si>
+    <t>Saravanan-5</t>
+  </si>
+  <si>
+    <t>Shabana-3</t>
+  </si>
+  <si>
+    <t>ashok2-2</t>
+  </si>
+  <si>
+    <t>Ashok-1</t>
   </si>
 </sst>
 </file>
@@ -3528,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6645,4 +6794,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32449D0-F39F-435C-AFA5-F8E7C217AB35}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A46" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>